--- a/Banco Central/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/Banco Central/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>Serie</t>
   </si>
@@ -627,6 +627,18 @@
   <si>
     <t>29-07-2021</t>
   </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -983,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH145"/>
+  <dimension ref="A1:BH149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27379,6 +27391,734 @@
         <v>3.8921</v>
       </c>
     </row>
+    <row r="146" spans="1:60">
+      <c r="A146" t="s">
+        <v>204</v>
+      </c>
+      <c r="B146">
+        <v>32.846</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>4026542.3671</v>
+      </c>
+      <c r="E146">
+        <v>6.86</v>
+      </c>
+      <c r="F146">
+        <v>619.73</v>
+      </c>
+      <c r="G146">
+        <v>21.4101</v>
+      </c>
+      <c r="H146">
+        <v>6.2554</v>
+      </c>
+      <c r="I146">
+        <v>123.72</v>
+      </c>
+      <c r="J146">
+        <v>8.7219</v>
+      </c>
+      <c r="K146">
+        <v>8.543699999999999</v>
+      </c>
+      <c r="L146">
+        <v>0.7005</v>
+      </c>
+      <c r="M146">
+        <v>3.672</v>
+      </c>
+      <c r="N146">
+        <v>8.888400000000001</v>
+      </c>
+      <c r="O146">
+        <v>1.3515</v>
+      </c>
+      <c r="P146">
+        <v>1.2438</v>
+      </c>
+      <c r="Q146">
+        <v>1</v>
+      </c>
+      <c r="R146">
+        <v>2.0995</v>
+      </c>
+      <c r="S146">
+        <v>0.82</v>
+      </c>
+      <c r="T146">
+        <v>1</v>
+      </c>
+      <c r="U146">
+        <v>1.3524</v>
+      </c>
+      <c r="V146">
+        <v>7.7707</v>
+      </c>
+      <c r="W146">
+        <v>1.4257</v>
+      </c>
+      <c r="X146">
+        <v>27.909</v>
+      </c>
+      <c r="Y146">
+        <v>22944</v>
+      </c>
+      <c r="Z146">
+        <v>0.8411</v>
+      </c>
+      <c r="AA146">
+        <v>300.55</v>
+      </c>
+      <c r="AB146">
+        <v>100.3357</v>
+      </c>
+      <c r="AC146">
+        <v>0.9056999999999999</v>
+      </c>
+      <c r="AD146">
+        <v>6903.4</v>
+      </c>
+      <c r="AE146">
+        <v>26.7246</v>
+      </c>
+      <c r="AF146">
+        <v>4.1358</v>
+      </c>
+      <c r="AG146">
+        <v>15.7026</v>
+      </c>
+      <c r="AH146">
+        <v>0.716</v>
+      </c>
+      <c r="AI146">
+        <v>8.450200000000001</v>
+      </c>
+      <c r="AJ146">
+        <v>3.9266</v>
+      </c>
+      <c r="AK146">
+        <v>96.6403</v>
+      </c>
+      <c r="AL146">
+        <v>758.53</v>
+      </c>
+      <c r="AM146">
+        <v>3845</v>
+      </c>
+      <c r="AN146">
+        <v>24</v>
+      </c>
+      <c r="AO146">
+        <v>56.924</v>
+      </c>
+      <c r="AP146">
+        <v>50.305</v>
+      </c>
+      <c r="AQ146">
+        <v>19.8539</v>
+      </c>
+      <c r="AR146">
+        <v>43.6202</v>
+      </c>
+      <c r="AS146">
+        <v>7.7186</v>
+      </c>
+      <c r="AT146">
+        <v>14.5352</v>
+      </c>
+      <c r="AU146">
+        <v>5.0661</v>
+      </c>
+      <c r="AV146">
+        <v>42000</v>
+      </c>
+      <c r="AW146">
+        <v>3.75</v>
+      </c>
+      <c r="AX146">
+        <v>4.236</v>
+      </c>
+      <c r="AY146">
+        <v>73.07640000000001</v>
+      </c>
+      <c r="AZ146">
+        <v>74.28</v>
+      </c>
+      <c r="BA146">
+        <v>14480</v>
+      </c>
+      <c r="BB146">
+        <v>161.5</v>
+      </c>
+      <c r="BC146">
+        <v>3.2357</v>
+      </c>
+      <c r="BD146">
+        <v>424.69</v>
+      </c>
+      <c r="BE146">
+        <v>1146.01</v>
+      </c>
+      <c r="BF146">
+        <v>109.5</v>
+      </c>
+      <c r="BG146">
+        <v>6.4587</v>
+      </c>
+      <c r="BH146">
+        <v>3.8426</v>
+      </c>
+    </row>
+    <row r="147" spans="1:60">
+      <c r="A147" t="s">
+        <v>205</v>
+      </c>
+      <c r="B147">
+        <v>32.913</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>3973215.6169</v>
+      </c>
+      <c r="E147">
+        <v>6.86</v>
+      </c>
+      <c r="F147">
+        <v>619.73</v>
+      </c>
+      <c r="G147">
+        <v>21.5049</v>
+      </c>
+      <c r="H147">
+        <v>6.2741</v>
+      </c>
+      <c r="I147">
+        <v>123.68</v>
+      </c>
+      <c r="J147">
+        <v>8.8392</v>
+      </c>
+      <c r="K147">
+        <v>8.608499999999999</v>
+      </c>
+      <c r="L147">
+        <v>0.6999</v>
+      </c>
+      <c r="M147">
+        <v>3.672</v>
+      </c>
+      <c r="N147">
+        <v>8.886100000000001</v>
+      </c>
+      <c r="O147">
+        <v>1.3637</v>
+      </c>
+      <c r="P147">
+        <v>1.2487</v>
+      </c>
+      <c r="Q147">
+        <v>1</v>
+      </c>
+      <c r="R147">
+        <v>2.0864</v>
+      </c>
+      <c r="S147">
+        <v>0.82</v>
+      </c>
+      <c r="T147">
+        <v>1</v>
+      </c>
+      <c r="U147">
+        <v>1.3551</v>
+      </c>
+      <c r="V147">
+        <v>7.7728</v>
+      </c>
+      <c r="W147">
+        <v>1.4366</v>
+      </c>
+      <c r="X147">
+        <v>27.952</v>
+      </c>
+      <c r="Y147">
+        <v>22928</v>
+      </c>
+      <c r="Z147">
+        <v>0.8435</v>
+      </c>
+      <c r="AA147">
+        <v>302.05</v>
+      </c>
+      <c r="AB147">
+        <v>100.1818</v>
+      </c>
+      <c r="AC147">
+        <v>0.9063</v>
+      </c>
+      <c r="AD147">
+        <v>6904.8</v>
+      </c>
+      <c r="AE147">
+        <v>26.6767</v>
+      </c>
+      <c r="AF147">
+        <v>4.1457</v>
+      </c>
+      <c r="AG147">
+        <v>15.6743</v>
+      </c>
+      <c r="AH147">
+        <v>0.72</v>
+      </c>
+      <c r="AI147">
+        <v>8.4255</v>
+      </c>
+      <c r="AJ147">
+        <v>4.0677</v>
+      </c>
+      <c r="AK147">
+        <v>96.68000000000001</v>
+      </c>
+      <c r="AL147">
+        <v>760.2</v>
+      </c>
+      <c r="AM147">
+        <v>3868.56</v>
+      </c>
+      <c r="AN147">
+        <v>24</v>
+      </c>
+      <c r="AO147">
+        <v>56.793</v>
+      </c>
+      <c r="AP147">
+        <v>49.985</v>
+      </c>
+      <c r="AQ147">
+        <v>19.908</v>
+      </c>
+      <c r="AR147">
+        <v>43.67</v>
+      </c>
+      <c r="AS147">
+        <v>7.7211</v>
+      </c>
+      <c r="AT147">
+        <v>14.6336</v>
+      </c>
+      <c r="AU147">
+        <v>5.1916</v>
+      </c>
+      <c r="AV147">
+        <v>42000</v>
+      </c>
+      <c r="AW147">
+        <v>3.75</v>
+      </c>
+      <c r="AX147">
+        <v>4.219</v>
+      </c>
+      <c r="AY147">
+        <v>73.17870000000001</v>
+      </c>
+      <c r="AZ147">
+        <v>74.41</v>
+      </c>
+      <c r="BA147">
+        <v>14460</v>
+      </c>
+      <c r="BB147">
+        <v>161.56</v>
+      </c>
+      <c r="BC147">
+        <v>3.23</v>
+      </c>
+      <c r="BD147">
+        <v>424.36</v>
+      </c>
+      <c r="BE147">
+        <v>1149.89</v>
+      </c>
+      <c r="BF147">
+        <v>109.78</v>
+      </c>
+      <c r="BG147">
+        <v>6.4664</v>
+      </c>
+      <c r="BH147">
+        <v>3.8548</v>
+      </c>
+    </row>
+    <row r="148" spans="1:60">
+      <c r="A148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148">
+        <v>32.951</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>4005606.6438</v>
+      </c>
+      <c r="E148">
+        <v>6.86</v>
+      </c>
+      <c r="F148">
+        <v>619.73</v>
+      </c>
+      <c r="G148">
+        <v>21.45</v>
+      </c>
+      <c r="H148">
+        <v>6.2648</v>
+      </c>
+      <c r="I148">
+        <v>123.43</v>
+      </c>
+      <c r="J148">
+        <v>8.828200000000001</v>
+      </c>
+      <c r="K148">
+        <v>8.588900000000001</v>
+      </c>
+      <c r="L148">
+        <v>0.7003</v>
+      </c>
+      <c r="M148">
+        <v>3.672</v>
+      </c>
+      <c r="N148">
+        <v>8.8873</v>
+      </c>
+      <c r="O148">
+        <v>1.3578</v>
+      </c>
+      <c r="P148">
+        <v>1.2508</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+      <c r="R148">
+        <v>2.0947</v>
+      </c>
+      <c r="S148">
+        <v>0.82</v>
+      </c>
+      <c r="T148">
+        <v>1</v>
+      </c>
+      <c r="U148">
+        <v>1.3529</v>
+      </c>
+      <c r="V148">
+        <v>7.7735</v>
+      </c>
+      <c r="W148">
+        <v>1.4341</v>
+      </c>
+      <c r="X148">
+        <v>27.907</v>
+      </c>
+      <c r="Y148">
+        <v>22952</v>
+      </c>
+      <c r="Z148">
+        <v>0.8421999999999999</v>
+      </c>
+      <c r="AA148">
+        <v>300.03</v>
+      </c>
+      <c r="AB148">
+        <v>100.2373</v>
+      </c>
+      <c r="AC148">
+        <v>0.9052</v>
+      </c>
+      <c r="AD148">
+        <v>6914.6</v>
+      </c>
+      <c r="AE148">
+        <v>26.7347</v>
+      </c>
+      <c r="AF148">
+        <v>4.1406</v>
+      </c>
+      <c r="AG148">
+        <v>15.6484</v>
+      </c>
+      <c r="AH148">
+        <v>0.7198</v>
+      </c>
+      <c r="AI148">
+        <v>8.352499999999999</v>
+      </c>
+      <c r="AJ148">
+        <v>4.0605</v>
+      </c>
+      <c r="AK148">
+        <v>96.7753</v>
+      </c>
+      <c r="AL148">
+        <v>761.39</v>
+      </c>
+      <c r="AM148">
+        <v>3883.68</v>
+      </c>
+      <c r="AN148">
+        <v>24</v>
+      </c>
+      <c r="AO148">
+        <v>56.972</v>
+      </c>
+      <c r="AP148">
+        <v>49.9</v>
+      </c>
+      <c r="AQ148">
+        <v>19.8887</v>
+      </c>
+      <c r="AR148">
+        <v>43.5004</v>
+      </c>
+      <c r="AS148">
+        <v>7.7455</v>
+      </c>
+      <c r="AT148">
+        <v>14.4299</v>
+      </c>
+      <c r="AU148">
+        <v>5.1482</v>
+      </c>
+      <c r="AV148">
+        <v>42000</v>
+      </c>
+      <c r="AW148">
+        <v>3.75</v>
+      </c>
+      <c r="AX148">
+        <v>4.224</v>
+      </c>
+      <c r="AY148">
+        <v>72.9816</v>
+      </c>
+      <c r="AZ148">
+        <v>74.3425</v>
+      </c>
+      <c r="BA148">
+        <v>14420</v>
+      </c>
+      <c r="BB148">
+        <v>163.25</v>
+      </c>
+      <c r="BC148">
+        <v>3.2227</v>
+      </c>
+      <c r="BD148">
+        <v>424.23</v>
+      </c>
+      <c r="BE148">
+        <v>1150.74</v>
+      </c>
+      <c r="BF148">
+        <v>109.26</v>
+      </c>
+      <c r="BG148">
+        <v>6.4659</v>
+      </c>
+      <c r="BH148">
+        <v>3.8405</v>
+      </c>
+    </row>
+    <row r="149" spans="1:60">
+      <c r="A149" t="s">
+        <v>207</v>
+      </c>
+      <c r="B149">
+        <v>33.025</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>4008446.0083</v>
+      </c>
+      <c r="E149">
+        <v>6.86</v>
+      </c>
+      <c r="F149">
+        <v>617.9299999999999</v>
+      </c>
+      <c r="G149">
+        <v>21.4608</v>
+      </c>
+      <c r="H149">
+        <v>6.2692</v>
+      </c>
+      <c r="I149">
+        <v>123.8</v>
+      </c>
+      <c r="J149">
+        <v>8.8088</v>
+      </c>
+      <c r="K149">
+        <v>8.601100000000001</v>
+      </c>
+      <c r="L149">
+        <v>0.7000999999999999</v>
+      </c>
+      <c r="M149">
+        <v>3.672</v>
+      </c>
+      <c r="N149">
+        <v>8.887499999999999</v>
+      </c>
+      <c r="O149">
+        <v>1.353</v>
+      </c>
+      <c r="P149">
+        <v>1.2539</v>
+      </c>
+      <c r="Q149">
+        <v>1</v>
+      </c>
+      <c r="R149">
+        <v>2.0929</v>
+      </c>
+      <c r="S149">
+        <v>0.82</v>
+      </c>
+      <c r="T149">
+        <v>1</v>
+      </c>
+      <c r="U149">
+        <v>1.3518</v>
+      </c>
+      <c r="V149">
+        <v>7.7786</v>
+      </c>
+      <c r="W149">
+        <v>1.4265</v>
+      </c>
+      <c r="X149">
+        <v>27.897</v>
+      </c>
+      <c r="Y149">
+        <v>22931</v>
+      </c>
+      <c r="Z149">
+        <v>0.843</v>
+      </c>
+      <c r="AA149">
+        <v>299.7</v>
+      </c>
+      <c r="AB149">
+        <v>100.5967</v>
+      </c>
+      <c r="AC149">
+        <v>0.9042</v>
+      </c>
+      <c r="AD149">
+        <v>6914.6</v>
+      </c>
+      <c r="AE149">
+        <v>26.7348</v>
+      </c>
+      <c r="AF149">
+        <v>4.1436</v>
+      </c>
+      <c r="AG149">
+        <v>15.6487</v>
+      </c>
+      <c r="AH149">
+        <v>0.7188</v>
+      </c>
+      <c r="AI149">
+        <v>8.399100000000001</v>
+      </c>
+      <c r="AJ149">
+        <v>4.0444</v>
+      </c>
+      <c r="AK149">
+        <v>96.795</v>
+      </c>
+      <c r="AL149">
+        <v>774.54</v>
+      </c>
+      <c r="AM149">
+        <v>3899.14</v>
+      </c>
+      <c r="AN149">
+        <v>24</v>
+      </c>
+      <c r="AO149">
+        <v>56.961</v>
+      </c>
+      <c r="AP149">
+        <v>49.6</v>
+      </c>
+      <c r="AQ149">
+        <v>19.8931</v>
+      </c>
+      <c r="AR149">
+        <v>43.525</v>
+      </c>
+      <c r="AS149">
+        <v>7.707</v>
+      </c>
+      <c r="AT149">
+        <v>14.3263</v>
+      </c>
+      <c r="AU149">
+        <v>5.2137</v>
+      </c>
+      <c r="AV149">
+        <v>42000</v>
+      </c>
+      <c r="AW149">
+        <v>3.75</v>
+      </c>
+      <c r="AX149">
+        <v>4.2185</v>
+      </c>
+      <c r="AY149">
+        <v>72.9794</v>
+      </c>
+      <c r="AZ149">
+        <v>74.28</v>
+      </c>
+      <c r="BA149">
+        <v>14340</v>
+      </c>
+      <c r="BB149">
+        <v>163.85</v>
+      </c>
+      <c r="BC149">
+        <v>3.2094</v>
+      </c>
+      <c r="BD149">
+        <v>423.6</v>
+      </c>
+      <c r="BE149">
+        <v>1147.95</v>
+      </c>
+      <c r="BF149">
+        <v>109.13</v>
+      </c>
+      <c r="BG149">
+        <v>6.4674</v>
+      </c>
+      <c r="BH149">
+        <v>3.8363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/4/Paridades de monedas 2021 - Diaria.xlsx
+++ b/Banco Central/4/Paridades de monedas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="209">
   <si>
     <t>Serie</t>
   </si>
@@ -639,6 +639,9 @@
   <si>
     <t>04-08-2021</t>
   </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
 </sst>
 </file>
 
@@ -995,7 +998,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH149"/>
+  <dimension ref="A1:BH150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -28119,6 +28122,188 @@
         <v>3.8363</v>
       </c>
     </row>
+    <row r="150" spans="1:60">
+      <c r="A150" t="s">
+        <v>208</v>
+      </c>
+      <c r="B150">
+        <v>33.135</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150">
+        <v>4023021.7755</v>
+      </c>
+      <c r="E150">
+        <v>6.86</v>
+      </c>
+      <c r="F150">
+        <v>618.45</v>
+      </c>
+      <c r="G150">
+        <v>21.4826</v>
+      </c>
+      <c r="H150">
+        <v>6.2821</v>
+      </c>
+      <c r="I150">
+        <v>124.93</v>
+      </c>
+      <c r="J150">
+        <v>8.838100000000001</v>
+      </c>
+      <c r="K150">
+        <v>8.605600000000001</v>
+      </c>
+      <c r="L150">
+        <v>0.7006</v>
+      </c>
+      <c r="M150">
+        <v>3.672</v>
+      </c>
+      <c r="N150">
+        <v>8.929600000000001</v>
+      </c>
+      <c r="O150">
+        <v>1.355</v>
+      </c>
+      <c r="P150">
+        <v>1.2551</v>
+      </c>
+      <c r="Q150">
+        <v>1</v>
+      </c>
+      <c r="R150">
+        <v>2.0859</v>
+      </c>
+      <c r="S150">
+        <v>0.82</v>
+      </c>
+      <c r="T150">
+        <v>1</v>
+      </c>
+      <c r="U150">
+        <v>1.351</v>
+      </c>
+      <c r="V150">
+        <v>7.7747</v>
+      </c>
+      <c r="W150">
+        <v>1.4188</v>
+      </c>
+      <c r="X150">
+        <v>27.77</v>
+      </c>
+      <c r="Y150">
+        <v>22944</v>
+      </c>
+      <c r="Z150">
+        <v>0.8448</v>
+      </c>
+      <c r="AA150">
+        <v>299.32</v>
+      </c>
+      <c r="AB150">
+        <v>100.5242</v>
+      </c>
+      <c r="AC150">
+        <v>0.9064</v>
+      </c>
+      <c r="AD150">
+        <v>6927.8</v>
+      </c>
+      <c r="AE150">
+        <v>26.7645</v>
+      </c>
+      <c r="AF150">
+        <v>4.1524</v>
+      </c>
+      <c r="AG150">
+        <v>15.6481</v>
+      </c>
+      <c r="AH150">
+        <v>0.7198</v>
+      </c>
+      <c r="AI150">
+        <v>8.4697</v>
+      </c>
+      <c r="AJ150">
+        <v>4.0814</v>
+      </c>
+      <c r="AK150">
+        <v>96.83</v>
+      </c>
+      <c r="AL150">
+        <v>775.54</v>
+      </c>
+      <c r="AM150">
+        <v>3900.73</v>
+      </c>
+      <c r="AN150">
+        <v>24</v>
+      </c>
+      <c r="AO150">
+        <v>56.963</v>
+      </c>
+      <c r="AP150">
+        <v>49.754</v>
+      </c>
+      <c r="AQ150">
+        <v>19.9657</v>
+      </c>
+      <c r="AR150">
+        <v>43.55</v>
+      </c>
+      <c r="AS150">
+        <v>7.709</v>
+      </c>
+      <c r="AT150">
+        <v>14.3501</v>
+      </c>
+      <c r="AU150">
+        <v>5.1863</v>
+      </c>
+      <c r="AV150">
+        <v>42000</v>
+      </c>
+      <c r="AW150">
+        <v>3.75</v>
+      </c>
+      <c r="AX150">
+        <v>4.218</v>
+      </c>
+      <c r="AY150">
+        <v>73.15219999999999</v>
+      </c>
+      <c r="AZ150">
+        <v>74.185</v>
+      </c>
+      <c r="BA150">
+        <v>14310</v>
+      </c>
+      <c r="BB150">
+        <v>163.25</v>
+      </c>
+      <c r="BC150">
+        <v>3.2133</v>
+      </c>
+      <c r="BD150">
+        <v>423.67</v>
+      </c>
+      <c r="BE150">
+        <v>1143.03</v>
+      </c>
+      <c r="BF150">
+        <v>109.48</v>
+      </c>
+      <c r="BG150">
+        <v>6.461</v>
+      </c>
+      <c r="BH150">
+        <v>3.8361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
